--- a/meta/en/3-b-1.xlsx
+++ b/meta/en/3-b-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
@@ -115,9 +115,6 @@
     <t>(0312) 32 46 52</t>
   </si>
   <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>Coverage of DTP containing vaccine (3rd dose): Percentage of surviving infants who received the 3 doses of diphtheria and tetanus toxoid with pertussis containing vaccine in a given year 
 Coverage of Measles containing vaccine (2nd dose): Percentage of children who received two dose of measles containing vaccine according to nationally recommended schedule through routine immunization services.
 Coverage of Pneumococcal conjugate vaccine (last dose in the schedule): Percentage of surviving infants who received the recommended doses of pneumococcal conjugate vaccine.</t>
@@ -151,18 +148,29 @@
   </si>
   <si>
     <t>http://www.who.int/immunization/monitoring_surveillance/routine/coverage/en/index4.html, https://www.unicef.org/immunization/</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,26 +237,34 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -558,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,8 +657,8 @@
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
+      <c r="B10" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -656,7 +672,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -664,7 +680,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -672,7 +688,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -686,7 +702,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -694,7 +710,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -708,7 +724,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -716,7 +732,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -736,7 +752,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -744,7 +760,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -752,15 +768,15 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>44</v>
+      <c r="B26" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
